--- a/my-app/public/file/demoexcelfile.xlsx
+++ b/my-app/public/file/demoexcelfile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mega\Emailcon\Emailcon-template\my-app\public\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304B233F-F1B1-46EC-9951-80B499FDB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Fname</t>
   </si>
@@ -27,86 +33,50 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Totalfees</t>
-  </si>
-  <si>
-    <t>Coursename</t>
-  </si>
-  <si>
-    <t>Coursetype</t>
-  </si>
-  <si>
-    <t>Offer</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>suresh</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>megarajan55@gmail.com</t>
-  </si>
-  <si>
-    <t>EMIamount</t>
-  </si>
-  <si>
-    <t>Fullstack</t>
-  </si>
-  <si>
-    <t>Micro</t>
-  </si>
-  <si>
-    <t>Renuga</t>
-  </si>
-  <si>
-    <t>Jagadeesan</t>
-  </si>
-  <si>
-    <t>Megarajan</t>
-  </si>
-  <si>
-    <t>Ravikumar</t>
-  </si>
-  <si>
-    <t>renugajagadeesan@gmail.com</t>
-  </si>
-  <si>
-    <t>megarajan050598@gmail.com</t>
-  </si>
-  <si>
-    <t>Datascience</t>
-  </si>
-  <si>
-    <t>Nano</t>
-  </si>
-  <si>
     <t>College</t>
   </si>
   <si>
     <t>kiot</t>
   </si>
   <si>
-    <t>dgct</t>
-  </si>
-  <si>
     <t>sona</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Ksr</t>
+  </si>
+  <si>
+    <t>demo1@gmail.com</t>
+  </si>
+  <si>
+    <t>demo2@gmail.com</t>
+  </si>
+  <si>
+    <t>demo3@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +88,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,7 +125,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -159,14 +137,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -276,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,229 +430,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>20000</v>
-      </c>
-      <c r="F2">
-        <v>50000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>3000</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2">
-        <v>45667</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>25000</v>
-      </c>
-      <c r="F3">
-        <v>55000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>2000</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>45672</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4">
-        <v>20000</v>
-      </c>
-      <c r="F4">
-        <v>50000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>45667</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="K10" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
